--- a/TestData/Data/TrainingType.xlsx
+++ b/TestData/Data/TrainingType.xlsx
@@ -43,7 +43,7 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>05/11/2018 16:25:53</x:t>
+    <x:t>06/11/2018 15:35:41</x:t>
   </x:si>
   <x:si>
     <x:t>Cours de soir</x:t>
